--- a/testing/PI_MORGAM_Grupo4.xlsx
+++ b/testing/PI_MORGAM_Grupo4.xlsx
@@ -11,6 +11,7 @@
     <sheet state="visible" name="Ejecucion-SP2" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Prueba exploratoria Sprint I" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Prueba exploratoria Sprint II" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Selenium" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -2787,6 +2788,95 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8382000" cy="5838825"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6562725" cy="6029325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9763125" cy="6734175"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -7724,7 +7814,7 @@
         <v>122</v>
       </c>
       <c r="H91" s="43" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I91" s="102" t="s">
         <v>54</v>
@@ -7792,13 +7882,13 @@
         <v>122</v>
       </c>
       <c r="H94" s="43" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="I94" s="102" t="s">
         <v>54</v>
       </c>
       <c r="J94" s="43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
@@ -15089,29 +15179,27 @@
     </row>
   </sheetData>
   <mergeCells count="462">
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="H20:H27"/>
-    <mergeCell ref="I20:I27"/>
-    <mergeCell ref="J20:J27"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="I28:I33"/>
+    <mergeCell ref="J28:J33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:D38"/>
     <mergeCell ref="H36:H38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="J36:J38"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:C41"/>
@@ -15378,33 +15466,27 @@
     <mergeCell ref="H155:H157"/>
     <mergeCell ref="I155:I157"/>
     <mergeCell ref="J155:J157"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="H158:H160"/>
+    <mergeCell ref="I158:I160"/>
+    <mergeCell ref="J158:J160"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="I28:I33"/>
-    <mergeCell ref="J28:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="D200:D202"/>
-    <mergeCell ref="H200:H202"/>
-    <mergeCell ref="I200:I202"/>
-    <mergeCell ref="J200:J202"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="B203:B205"/>
-    <mergeCell ref="C203:C205"/>
-    <mergeCell ref="D203:D205"/>
-    <mergeCell ref="H203:H205"/>
-    <mergeCell ref="I203:I205"/>
-    <mergeCell ref="J203:J205"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="I20:I27"/>
+    <mergeCell ref="J20:J27"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -15433,12 +15515,6 @@
     <mergeCell ref="H9:H12"/>
     <mergeCell ref="I9:I12"/>
     <mergeCell ref="J9:J12"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="G18:G19"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="B13:B16"/>
@@ -15446,6 +15522,13 @@
     <mergeCell ref="H13:H16"/>
     <mergeCell ref="I13:I16"/>
     <mergeCell ref="J13:J16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="A206:A208"/>
     <mergeCell ref="B206:B208"/>
     <mergeCell ref="C206:C208"/>
@@ -15453,13 +15536,13 @@
     <mergeCell ref="H206:H208"/>
     <mergeCell ref="I206:I208"/>
     <mergeCell ref="J206:J208"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
-    <mergeCell ref="H158:H160"/>
-    <mergeCell ref="I158:I160"/>
-    <mergeCell ref="J158:J160"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="B203:B205"/>
+    <mergeCell ref="C203:C205"/>
+    <mergeCell ref="D203:D205"/>
+    <mergeCell ref="H203:H205"/>
+    <mergeCell ref="I203:I205"/>
+    <mergeCell ref="J203:J205"/>
     <mergeCell ref="A161:A163"/>
     <mergeCell ref="B161:B163"/>
     <mergeCell ref="C161:C163"/>
@@ -15551,6 +15634,13 @@
     <mergeCell ref="H197:H199"/>
     <mergeCell ref="I197:I199"/>
     <mergeCell ref="J197:J199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="D200:D202"/>
+    <mergeCell ref="H200:H202"/>
+    <mergeCell ref="I200:I202"/>
+    <mergeCell ref="J200:J202"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H994">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -16020,7 +16110,7 @@
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="153" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="J14" s="153" t="s">
         <v>428</v>
@@ -19193,8 +19283,6 @@
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="M14:M16"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G11:H11"/>
@@ -19202,23 +19290,25 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
     <mergeCell ref="K14:K16"/>
     <mergeCell ref="L14:L16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="J17:J19"/>
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="L17:L19"/>
     <mergeCell ref="M17:M19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
@@ -20968,7 +21058,7 @@
         <v>187</v>
       </c>
       <c r="C21" s="164" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D21" s="162" t="s">
         <v>54</v>
@@ -22866,7 +22956,7 @@
         <v>490</v>
       </c>
       <c r="D16" s="164" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>464</v>
@@ -22881,7 +22971,7 @@
         <v>492</v>
       </c>
       <c r="D17" s="164" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>463</v>
@@ -23945,12 +24035,12 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D30">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -24285,7 +24375,7 @@
         <v>496</v>
       </c>
       <c r="D19" s="179" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>466</v>
@@ -24325,7 +24415,7 @@
         <v>500</v>
       </c>
       <c r="D21" s="179" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -25455,16 +25545,16 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B1:C2"/>
     <mergeCell ref="B3:C4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:C30 D9:D37">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -25496,4 +25586,18 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>